--- a/biology/Botanique/Pâturin_arctique/Pâturin_arctique.xlsx
+++ b/biology/Botanique/Pâturin_arctique/Pâturin_arctique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_arctique</t>
+          <t>Pâturin_arctique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poa arctica, de son nom commun le Pâturin arctique, est une espèce de plantes de la famille des Poaceae.
 			Poa arctica, vue globale (Monts Crazy, Montana, États-Unis)
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A2turin_arctique</t>
+          <t>Pâturin_arctique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (24 janvier 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (24 janvier 2019) :
 sous-espèce Poa arctica subsp. depauperata (Fr.) Nannf.
-Selon Tropicos                                           (24 janvier 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 janvier 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Poa arctica subsp. aperta (Scribn. &amp; Merr.) Soreng
 sous-espèce Poa arctica subsp. arctica
 sous-espèce Poa arctica subsp. caespitans Simmons ex Nannf.
